--- a/trunk/SHEIB/SOURCE/OSPortal/工作说明.xlsx
+++ b/trunk/SHEIB/SOURCE/OSPortal/工作说明.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
